--- a/mapping_schemes/south/MWI_RES.xlsx
+++ b/mapping_schemes/south/MWI_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/South/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4374C000-6217-F54B-8DCB-918E374562A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02664D25-4510-244C-B41E-4216AABAFE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11660" yWindow="460" windowWidth="14660" windowHeight="17160" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="11660" yWindow="460" windowWidth="14660" windowHeight="17160" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="80">
   <si>
     <t>MATO</t>
   </si>
@@ -2778,10 +2778,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2984,46 +2984,46 @@
         <v>0</v>
       </c>
       <c r="D14" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="9" customFormat="1">
       <c r="A15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="9" customFormat="1">
+      <c r="A16" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2">
+        <v>37</v>
+      </c>
+      <c r="D16" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -3031,16 +3031,16 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3051,7 +3051,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2">
         <v>0.5</v>
@@ -3059,27 +3059,27 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3087,27 +3087,45 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10"/>
@@ -3227,11 +3245,11 @@
     <row r="48" spans="1:3">
       <c r="A48" s="10"/>
       <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="10"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="10"/>
@@ -3352,13 +3370,12 @@
       <c r="A73" s="10"/>
       <c r="B73" s="5"/>
       <c r="C73" s="3"/>
-      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="10"/>
       <c r="B74" s="5"/>
       <c r="C74" s="3"/>
-      <c r="G74" s="10"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="10"/>
@@ -3396,82 +3413,83 @@
       <c r="C80" s="3"/>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:7">
       <c r="A81" s="10"/>
       <c r="B81" s="5"/>
       <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="10"/>
       <c r="B82" s="5"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:7">
       <c r="A83" s="10"/>
       <c r="B83" s="5"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:7">
       <c r="A84" s="10"/>
       <c r="B84" s="5"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:7">
       <c r="A85" s="10"/>
       <c r="B85" s="5"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:7">
       <c r="A86" s="10"/>
       <c r="B86" s="5"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:7">
       <c r="A87" s="10"/>
       <c r="B87" s="5"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:7">
       <c r="A88" s="10"/>
       <c r="B88" s="5"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:7">
       <c r="A89" s="10"/>
       <c r="B89" s="5"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:7">
       <c r="A90" s="10"/>
       <c r="B90" s="5"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="5"/>
+    <row r="91" spans="1:7">
+      <c r="A91" s="10"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:7">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:7">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:7">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="3"/>
@@ -3479,11 +3497,11 @@
     <row r="97" spans="1:3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5"/>
@@ -3539,6 +3557,11 @@
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3550,7 +3573,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
